--- a/biology/Zoologie/Bedotia_albomarginata/Bedotia_albomarginata.xlsx
+++ b/biology/Zoologie/Bedotia_albomarginata/Bedotia_albomarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bedotia albomarginata est une espèce de poissons de la famille des Bedotiidae endémique des cours d'eau de Madagascar.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Bedotia albomarginata est de 88 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Bedotia albomarginata est de 88 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique du latin alba, « blanc », et marginatus, « bordé », fait référence aux rayures blanches présentes le long de la seconde nageoire dorsale et de l'anale[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique du latin alba, « blanc », et marginatus, « bordé », fait référence aux rayures blanches présentes le long de la seconde nageoire dorsale et de l'anale
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(en) Sparks &amp; Rush, 2005 : A new rainbowfish (Teleostei: Melanotaenioidei: Bedotiidae) from the southeastern highlands of Madagascar, with comments on the biogeography of Bedotia. Zootaxa, vol. 1051, n. 1, pp. 39-54[4] (introduction).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Sparks &amp; Rush, 2005 : A new rainbowfish (Teleostei: Melanotaenioidei: Bedotiidae) from the southeastern highlands of Madagascar, with comments on the biogeography of Bedotia. Zootaxa, vol. 1051, n. 1, pp. 39-54 (introduction).</t>
         </is>
       </c>
     </row>
